--- a/data/intermediate/cs_w1_10/csm.validationfull.xlsx
+++ b/data/intermediate/cs_w1_10/csm.validationfull.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>SentenceID</t>
   </si>
@@ -58,22 +58,28 @@
     <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
   </si>
   <si>
-    <t>the performance be absolutely worth seeing.</t>
-  </si>
-  <si>
-    <t>a welcome relief from baseball movie that try too hard to be mythic this one sweet and modest ultimately win story so i like it.</t>
+    <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
+  </si>
+  <si>
+    <t>this quiet introspective and entertain independent be worth see .</t>
+  </si>
+  <si>
+    <t>the importance of be earnest so thick with wit it play like a read from bartlett familiar quotation i</t>
   </si>
   <si>
     <t>Negative</t>
   </si>
   <si>
+    <t>Neutral</t>
+  </si>
+  <si>
     <t>Positive</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -132,10 +138,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,17 +443,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="36.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -478,18 +496,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" ht="45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -498,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -507,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M2">
         <v>0.25</v>
@@ -522,92 +540,136 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="75">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="M3">
-        <v>0.125</v>
+        <v>0.20833333333333329</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>15.125</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" ht="30">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4">
+        <v>0.1875</v>
+      </c>
+      <c r="M4">
+        <v>0.375</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.35</v>
-      </c>
-      <c r="N4">
-        <v>12.625</v>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>0.375</v>
+      </c>
+      <c r="M5">
+        <v>0.125</v>
+      </c>
+      <c r="N5">
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/cs_w1_10/csm.validationfull.xlsx
+++ b/data/intermediate/cs_w1_10/csm.validationfull.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="DataFrame" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,16 +55,16 @@
     <t>Neutral-Senti</t>
   </si>
   <si>
-    <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
+    <t>there be little to recommend snow dog unless one consider cliched dialogue and perverse escapism a source of high hilarity so you would have hard time watch this.</t>
   </si>
   <si>
     <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
   </si>
   <si>
-    <t>this quiet introspective and entertain independent be worth see .</t>
-  </si>
-  <si>
-    <t>the importance of be earnest so thick with wit it play like a read from bartlett familiar quotation i</t>
+    <t>the performance be absolutely worth seeing.</t>
+  </si>
+  <si>
+    <t>i still like moonlight mile better judgment be damn .</t>
   </si>
   <si>
     <t>Negative</t>
@@ -138,16 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,21 +439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="36.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -496,14 +484,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2">
@@ -528,33 +516,33 @@
         <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2">
-        <v>0.33333333333333331</v>
+        <v>0.275</v>
       </c>
       <c r="M2">
-        <v>0.25</v>
+        <v>0.328125</v>
       </c>
       <c r="N2">
-        <v>6.5</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="75">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.3333333333333329E-2</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -578,20 +566,20 @@
         <v>0.25</v>
       </c>
       <c r="M3">
-        <v>0.20833333333333329</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="N3">
         <v>15.125</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
@@ -601,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -610,32 +598,32 @@
         <v>19</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L4">
-        <v>0.1875</v>
+        <v>0.28125</v>
       </c>
       <c r="M4">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="N4">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5">
@@ -663,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="L5">
-        <v>0.375</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M5">
-        <v>0.125</v>
+        <v>0.25</v>
       </c>
       <c r="N5">
-        <v>9.75</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/intermediate/cs_w1_10/csm.validationfull.xlsx
+++ b/data/intermediate/cs_w1_10/csm.validationfull.xlsx
@@ -55,18 +55,18 @@
     <t>Neutral-Senti</t>
   </si>
   <si>
-    <t>there be little to recommend snow dog unless one consider cliched dialogue and perverse escapism a source of high hilarity so you would have hard time watch this.</t>
-  </si>
-  <si>
-    <t>downright transparent be the script endless assault of embarrassingly ham fisted sex joke that reek a rewrite design to garner film cooler pg 13 rat make it relic bygone era</t>
+    <t>aggressive self glorification and a manipulative whitewash leave little to recommend .</t>
+  </si>
+  <si>
+    <t>come across a relic from bygone era and it convolution feel silly rather than plausible .</t>
+  </si>
+  <si>
+    <t>a welcome relief from baseball movie that try too hard to be mythic this one sweet and modest ultimately win story so i like it.</t>
   </si>
   <si>
     <t>the performance be absolutely worth seeing.</t>
   </si>
   <si>
-    <t>i still like moonlight mile better judgment be damn .</t>
-  </si>
-  <si>
     <t>Negative</t>
   </si>
   <si>
@@ -76,10 +76,10 @@
     <t>Positive</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -513,19 +513,19 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2">
-        <v>0.275</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.328125</v>
+        <v>0.25</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="M3">
-        <v>0.2083333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="N3">
-        <v>15.125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -604,16 +604,16 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4">
-        <v>0.28125</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="M4">
-        <v>0.125</v>
+        <v>0.35</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>12.625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -639,7 +639,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -651,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="L5">
-        <v>0.4166666666666667</v>
+        <v>0.28125</v>
       </c>
       <c r="M5">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
